--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N2">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O2">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P2">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q2">
-        <v>11.26077109842</v>
+        <v>2.991631389438</v>
       </c>
       <c r="R2">
-        <v>67.56462659052001</v>
+        <v>17.949788336628</v>
       </c>
       <c r="S2">
-        <v>0.01080412636761819</v>
+        <v>0.002601635821516746</v>
       </c>
       <c r="T2">
-        <v>0.008452143430792147</v>
+        <v>0.002147966763657567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N3">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O3">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P3">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q3">
-        <v>21.14828537702401</v>
+        <v>16.547408725604</v>
       </c>
       <c r="R3">
-        <v>84.59314150809602</v>
+        <v>66.189634902416</v>
       </c>
       <c r="S3">
-        <v>0.02029068397490813</v>
+        <v>0.01439025257115565</v>
       </c>
       <c r="T3">
-        <v>0.01058236241903607</v>
+        <v>0.007920602360469212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N4">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O4">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P4">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q4">
-        <v>25.622965925425</v>
+        <v>5.194207897843</v>
       </c>
       <c r="R4">
-        <v>153.73779555255</v>
+        <v>31.165247387058</v>
       </c>
       <c r="S4">
-        <v>0.0245839080958061</v>
+        <v>0.004517079670691697</v>
       </c>
       <c r="T4">
-        <v>0.01923216280938157</v>
+        <v>0.003729398604214513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>350.3919066666667</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>1051.17572</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.4789344206933965</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.4937404802104949</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N5">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O5">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P5">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q5">
-        <v>96.86233867893333</v>
+        <v>5.756284761379</v>
       </c>
       <c r="R5">
-        <v>871.7610481103999</v>
+        <v>34.537708568274</v>
       </c>
       <c r="S5">
-        <v>0.0929343948299476</v>
+        <v>0.005005882973058351</v>
       </c>
       <c r="T5">
-        <v>0.1090548381279833</v>
+        <v>0.004132965175202734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I6">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J6">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N6">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O6">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P6">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q6">
-        <v>181.91226540032</v>
+        <v>38.76105349928</v>
       </c>
       <c r="R6">
-        <v>1091.47359240192</v>
+        <v>348.84948149352</v>
       </c>
       <c r="S6">
-        <v>0.1745353924724144</v>
+        <v>0.0337080783479805</v>
       </c>
       <c r="T6">
-        <v>0.1365402551517601</v>
+        <v>0.04174517703020564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J7">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6290166666666667</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N7">
-        <v>1.88705</v>
+        <v>1.223752</v>
       </c>
       <c r="O7">
-        <v>0.4415315004607061</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P7">
-        <v>0.5025826256436589</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q7">
-        <v>220.4023491584445</v>
+        <v>214.3963982835734</v>
       </c>
       <c r="R7">
-        <v>1983.621142426</v>
+        <v>1286.37838970144</v>
       </c>
       <c r="S7">
-        <v>0.2114646333910344</v>
+        <v>0.1864472179787829</v>
       </c>
       <c r="T7">
-        <v>0.2481453869307515</v>
+        <v>0.1539348528655187</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>243.8287033333334</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>731.4861100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.3332781281688242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.3435812836494235</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.27644</v>
+        <v>0.192067</v>
       </c>
       <c r="N8">
-        <v>0.8293199999999999</v>
+        <v>0.576201</v>
       </c>
       <c r="O8">
-        <v>0.1940440920813294</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P8">
-        <v>0.2208748168298663</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q8">
-        <v>67.40400674946666</v>
+        <v>67.29872233774667</v>
       </c>
       <c r="R8">
-        <v>606.6360607452</v>
+        <v>605.6885010397199</v>
       </c>
       <c r="S8">
-        <v>0.06467065179108444</v>
+        <v>0.05852551467214091</v>
       </c>
       <c r="T8">
-        <v>0.07588845309223673</v>
+        <v>0.07247989474661919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>243.8287033333334</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>731.4861100000001</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.3332781281688242</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.3435812836494235</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5191680000000001</v>
+        <v>0.212851</v>
       </c>
       <c r="N9">
-        <v>1.038336</v>
+        <v>0.638553</v>
       </c>
       <c r="O9">
-        <v>0.3644244074579643</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P9">
-        <v>0.2765425575264748</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q9">
-        <v>126.58806025216</v>
+        <v>74.58126772590667</v>
       </c>
       <c r="R9">
-        <v>759.5283615129601</v>
+        <v>671.23140953316</v>
       </c>
       <c r="S9">
-        <v>0.1214546843766233</v>
+        <v>0.06485869162052756</v>
       </c>
       <c r="T9">
-        <v>0.09501484689864073</v>
+        <v>0.08032310639887456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H10">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I10">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J10">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,95 +1057,95 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6290166666666667</v>
+        <v>0.110622</v>
       </c>
       <c r="N10">
-        <v>1.88705</v>
+        <v>0.331866</v>
       </c>
       <c r="O10">
-        <v>0.4415315004607061</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P10">
-        <v>0.5025826256436589</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q10">
-        <v>153.3723182083889</v>
+        <v>42.48908938476</v>
       </c>
       <c r="R10">
-        <v>1380.3508638755</v>
+        <v>382.40180446284</v>
       </c>
       <c r="S10">
-        <v>0.1471527920011165</v>
+        <v>0.0369501193754303</v>
       </c>
       <c r="T10">
-        <v>0.172677983658546</v>
+        <v>0.04576022574443146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.082339</v>
+        <v>384.09258</v>
       </c>
       <c r="H11">
-        <v>50.16467799999999</v>
+        <v>1152.27774</v>
       </c>
       <c r="I11">
-        <v>0.03428388404538221</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J11">
-        <v>0.02356250409334497</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.27644</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N11">
-        <v>0.8293199999999999</v>
+        <v>1.223752</v>
       </c>
       <c r="O11">
-        <v>0.1940440920813294</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P11">
-        <v>0.2208748168298663</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q11">
-        <v>6.933761793159999</v>
+        <v>235.01703148008</v>
       </c>
       <c r="R11">
-        <v>41.60257075895999</v>
+        <v>1410.10218888048</v>
       </c>
       <c r="S11">
-        <v>0.006652585152607766</v>
+        <v>0.2043797006288152</v>
       </c>
       <c r="T11">
-        <v>0.005204363775670544</v>
+        <v>0.1687402981179136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.082339</v>
+        <v>384.09258</v>
       </c>
       <c r="H12">
-        <v>50.16467799999999</v>
+        <v>1152.27774</v>
       </c>
       <c r="I12">
-        <v>0.03428388404538221</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J12">
-        <v>0.02356250409334497</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5191680000000001</v>
+        <v>0.192067</v>
       </c>
       <c r="N12">
-        <v>1.038336</v>
+        <v>0.576201</v>
       </c>
       <c r="O12">
-        <v>0.3644244074579643</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P12">
-        <v>0.2765425575264748</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q12">
-        <v>13.021947773952</v>
+        <v>73.77150956285999</v>
       </c>
       <c r="R12">
-        <v>52.087791095808</v>
+        <v>663.94358606574</v>
       </c>
       <c r="S12">
-        <v>0.01249388412859597</v>
+        <v>0.06415449529099793</v>
       </c>
       <c r="T12">
-        <v>0.006516035143701649</v>
+        <v>0.07945100683458731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.082339</v>
+        <v>384.09258</v>
       </c>
       <c r="H13">
-        <v>50.16467799999999</v>
+        <v>1152.27774</v>
       </c>
       <c r="I13">
-        <v>0.03428388404538221</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J13">
-        <v>0.02356250409334497</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6290166666666667</v>
+        <v>0.212851</v>
       </c>
       <c r="N13">
-        <v>1.88705</v>
+        <v>0.638553</v>
       </c>
       <c r="O13">
-        <v>0.4415315004607061</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P13">
-        <v>0.5025826256436589</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q13">
-        <v>15.77720926998333</v>
+        <v>81.75448974558</v>
       </c>
       <c r="R13">
-        <v>94.6632556199</v>
+        <v>735.7904077102201</v>
       </c>
       <c r="S13">
-        <v>0.01513741476417847</v>
+        <v>0.07109679683227312</v>
       </c>
       <c r="T13">
-        <v>0.01184210517397278</v>
+        <v>0.08804857813028133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.832077</v>
+        <v>16.362698</v>
       </c>
       <c r="H14">
-        <v>68.49623099999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I14">
-        <v>0.03120810544755168</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J14">
-        <v>0.03217289111905</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.27644</v>
+        <v>0.110622</v>
       </c>
       <c r="N14">
-        <v>0.8293199999999999</v>
+        <v>0.331866</v>
       </c>
       <c r="O14">
-        <v>0.1940440920813294</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P14">
-        <v>0.2208748168298663</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q14">
-        <v>6.311699365879998</v>
+        <v>1.810074378156</v>
       </c>
       <c r="R14">
-        <v>56.80529429291999</v>
+        <v>10.860446268936</v>
       </c>
       <c r="S14">
-        <v>0.006055748487148558</v>
+        <v>0.001574109149424638</v>
       </c>
       <c r="T14">
-        <v>0.0071061814328074</v>
+        <v>0.00129961853514233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.832077</v>
+        <v>16.362698</v>
       </c>
       <c r="H15">
-        <v>68.49623099999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I15">
-        <v>0.03120810544755168</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J15">
-        <v>0.03217289111905</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,157 +1367,157 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5191680000000001</v>
+        <v>0.6118760000000001</v>
       </c>
       <c r="N15">
-        <v>1.038336</v>
+        <v>1.223752</v>
       </c>
       <c r="O15">
-        <v>0.3644244074579643</v>
+        <v>0.5427242473053424</v>
       </c>
       <c r="P15">
-        <v>0.2765425575264748</v>
+        <v>0.4417284032613671</v>
       </c>
       <c r="Q15">
-        <v>11.853683751936</v>
+        <v>10.011942201448</v>
       </c>
       <c r="R15">
-        <v>71.12210251161601</v>
+        <v>40.04776880579201</v>
       </c>
       <c r="S15">
-        <v>0.01137299533560969</v>
+        <v>0.008706763662864079</v>
       </c>
       <c r="T15">
-        <v>0.008897173593082895</v>
+        <v>0.004792328173472115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.832077</v>
+        <v>16.362698</v>
       </c>
       <c r="H16">
-        <v>68.49623099999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I16">
-        <v>0.03120810544755168</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J16">
-        <v>0.03217289111905</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6290166666666667</v>
+        <v>0.192067</v>
       </c>
       <c r="N16">
-        <v>1.88705</v>
+        <v>0.576201</v>
       </c>
       <c r="O16">
-        <v>0.4415315004607061</v>
+        <v>0.1703603638763331</v>
       </c>
       <c r="P16">
-        <v>0.5025826256436589</v>
+        <v>0.2079868696333922</v>
       </c>
       <c r="Q16">
-        <v>14.36175696761667</v>
+        <v>3.142734316766</v>
       </c>
       <c r="R16">
-        <v>129.25581270855</v>
+        <v>18.856405900596</v>
       </c>
       <c r="S16">
-        <v>0.01377936162479343</v>
+        <v>0.00273304064293307</v>
       </c>
       <c r="T16">
-        <v>0.0161695360931597</v>
+        <v>0.002256457424284336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.737294</v>
+        <v>16.362698</v>
       </c>
       <c r="H17">
-        <v>146.211882</v>
+        <v>32.725396</v>
       </c>
       <c r="I17">
-        <v>0.06661674320651284</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J17">
-        <v>0.06867617226847689</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.27644</v>
+        <v>0.212851</v>
       </c>
       <c r="N17">
-        <v>0.8293199999999999</v>
+        <v>0.638553</v>
       </c>
       <c r="O17">
-        <v>0.1940440920813294</v>
+        <v>0.18879544019244</v>
       </c>
       <c r="P17">
-        <v>0.2208748168298663</v>
+        <v>0.2304935943620568</v>
       </c>
       <c r="Q17">
-        <v>13.47293755336</v>
+        <v>3.482816631998001</v>
       </c>
       <c r="R17">
-        <v>121.25643798024</v>
+        <v>20.896899791988</v>
       </c>
       <c r="S17">
-        <v>0.01292658545292285</v>
+        <v>0.003028789088645873</v>
       </c>
       <c r="T17">
-        <v>0.01516883697037617</v>
+        <v>0.002500633733105351</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,108 +1535,480 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>48.737294</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H18">
-        <v>146.211882</v>
+        <v>130.513411</v>
       </c>
       <c r="I18">
-        <v>0.06661674320651284</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J18">
-        <v>0.06867617226847689</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5191680000000001</v>
+        <v>0.110622</v>
       </c>
       <c r="N18">
-        <v>1.038336</v>
+        <v>0.331866</v>
       </c>
       <c r="O18">
-        <v>0.3644244074579643</v>
+        <v>0.0981199486258843</v>
       </c>
       <c r="P18">
-        <v>0.2765425575264748</v>
+        <v>0.1197911327431839</v>
       </c>
       <c r="Q18">
-        <v>25.302843451392</v>
+        <v>4.812551517214</v>
       </c>
       <c r="R18">
-        <v>151.817060708352</v>
+        <v>43.31296365492599</v>
       </c>
       <c r="S18">
-        <v>0.02427676716981281</v>
+        <v>0.004185176845076083</v>
       </c>
       <c r="T18">
-        <v>0.01899188432025336</v>
+        <v>0.005183058686906304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>43.50447033333333</v>
+      </c>
+      <c r="H19">
+        <v>130.513411</v>
+      </c>
+      <c r="I19">
+        <v>0.04265367953904556</v>
+      </c>
+      <c r="J19">
+        <v>0.04326746536421927</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.223752</v>
+      </c>
+      <c r="O19">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P19">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q19">
+        <v>26.61934128967867</v>
+      </c>
+      <c r="R19">
+        <v>159.716047738072</v>
+      </c>
+      <c r="S19">
+        <v>0.02314918612263179</v>
+      </c>
+      <c r="T19">
+        <v>0.01911246838850308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>43.50447033333333</v>
+      </c>
+      <c r="H20">
+        <v>130.513411</v>
+      </c>
+      <c r="I20">
+        <v>0.04265367953904556</v>
+      </c>
+      <c r="J20">
+        <v>0.04326746536421927</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.192067</v>
+      </c>
+      <c r="N20">
+        <v>0.576201</v>
+      </c>
+      <c r="O20">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P20">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q20">
+        <v>8.355773103512332</v>
+      </c>
+      <c r="R20">
+        <v>75.20195793161099</v>
+      </c>
+      <c r="S20">
+        <v>0.007266496366936305</v>
+      </c>
+      <c r="T20">
+        <v>0.008999064678075184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>43.50447033333333</v>
+      </c>
+      <c r="H21">
+        <v>130.513411</v>
+      </c>
+      <c r="I21">
+        <v>0.04265367953904556</v>
+      </c>
+      <c r="J21">
+        <v>0.04326746536421927</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.212851</v>
+      </c>
+      <c r="N21">
+        <v>0.638553</v>
+      </c>
+      <c r="O21">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P21">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q21">
+        <v>9.259970014920333</v>
+      </c>
+      <c r="R21">
+        <v>83.339730134283</v>
+      </c>
+      <c r="S21">
+        <v>0.00805282020440138</v>
+      </c>
+      <c r="T21">
+        <v>0.009972873610734699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>48.737294</v>
-      </c>
-      <c r="H19">
-        <v>146.211882</v>
-      </c>
-      <c r="I19">
-        <v>0.06661674320651284</v>
-      </c>
-      <c r="J19">
-        <v>0.06867617226847689</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6290166666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.88705</v>
-      </c>
-      <c r="O19">
-        <v>0.4415315004607061</v>
-      </c>
-      <c r="P19">
-        <v>0.5025826256436589</v>
-      </c>
-      <c r="Q19">
-        <v>30.65657021423333</v>
-      </c>
-      <c r="R19">
-        <v>275.9091319281</v>
-      </c>
-      <c r="S19">
-        <v>0.02941339058377716</v>
-      </c>
-      <c r="T19">
-        <v>0.03451545097784735</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>198.5510966666667</v>
+      </c>
+      <c r="H22">
+        <v>595.65329</v>
+      </c>
+      <c r="I22">
+        <v>0.1946681521337158</v>
+      </c>
+      <c r="J22">
+        <v>0.1974694239978009</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.110622</v>
+      </c>
+      <c r="N22">
+        <v>0.331866</v>
+      </c>
+      <c r="O22">
+        <v>0.0981199486258843</v>
+      </c>
+      <c r="P22">
+        <v>0.1197911327431839</v>
+      </c>
+      <c r="Q22">
+        <v>21.96411941546</v>
+      </c>
+      <c r="R22">
+        <v>197.67707473914</v>
+      </c>
+      <c r="S22">
+        <v>0.01910082908645602</v>
+      </c>
+      <c r="T22">
+        <v>0.02365508598284064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>198.5510966666667</v>
+      </c>
+      <c r="H23">
+        <v>595.65329</v>
+      </c>
+      <c r="I23">
+        <v>0.1946681521337158</v>
+      </c>
+      <c r="J23">
+        <v>0.1974694239978009</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6118760000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.223752</v>
+      </c>
+      <c r="O23">
+        <v>0.5427242473053424</v>
+      </c>
+      <c r="P23">
+        <v>0.4417284032613671</v>
+      </c>
+      <c r="Q23">
+        <v>121.4886508240133</v>
+      </c>
+      <c r="R23">
+        <v>728.9319049440801</v>
+      </c>
+      <c r="S23">
+        <v>0.1056511263410928</v>
+      </c>
+      <c r="T23">
+        <v>0.08722785335549051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>198.5510966666667</v>
+      </c>
+      <c r="H24">
+        <v>595.65329</v>
+      </c>
+      <c r="I24">
+        <v>0.1946681521337158</v>
+      </c>
+      <c r="J24">
+        <v>0.1974694239978009</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.192067</v>
+      </c>
+      <c r="N24">
+        <v>0.576201</v>
+      </c>
+      <c r="O24">
+        <v>0.1703603638763331</v>
+      </c>
+      <c r="P24">
+        <v>0.2079868696333922</v>
+      </c>
+      <c r="Q24">
+        <v>38.13511348347667</v>
+      </c>
+      <c r="R24">
+        <v>343.21602135129</v>
+      </c>
+      <c r="S24">
+        <v>0.03316373723263319</v>
+      </c>
+      <c r="T24">
+        <v>0.04107104734561166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>198.5510966666667</v>
+      </c>
+      <c r="H25">
+        <v>595.65329</v>
+      </c>
+      <c r="I25">
+        <v>0.1946681521337158</v>
+      </c>
+      <c r="J25">
+        <v>0.1974694239978009</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.212851</v>
+      </c>
+      <c r="N25">
+        <v>0.638553</v>
+      </c>
+      <c r="O25">
+        <v>0.18879544019244</v>
+      </c>
+      <c r="P25">
+        <v>0.2304935943620568</v>
+      </c>
+      <c r="Q25">
+        <v>42.26179947659667</v>
+      </c>
+      <c r="R25">
+        <v>380.35619528937</v>
+      </c>
+      <c r="S25">
+        <v>0.03675245947353376</v>
+      </c>
+      <c r="T25">
+        <v>0.04551543731385813</v>
       </c>
     </row>
   </sheetData>
